--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A" sheetId="1" r:id="rId1"/>
+    <sheet name="Type B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Mobilization and Site Preparation</t>
   </si>
@@ -91,6 +92,39 @@
   </si>
   <si>
     <t>perday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Type-B-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From km </t>
+  </si>
+  <si>
+    <t>to  km.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Type_B5_724M_0_TO_724</t>
+  </si>
+  <si>
+    <t>Type_B5_1165M_1015_TO_2180</t>
+  </si>
+  <si>
+    <t>Type_B5_1150M_9200_TO_10350</t>
+  </si>
+  <si>
+    <t>Geo_Bags</t>
+  </si>
+  <si>
+    <t>Geotextile Filter</t>
+  </si>
+  <si>
+    <t>Turfing</t>
+  </si>
+  <si>
+    <t>work name</t>
   </si>
 </sst>
 </file>
@@ -160,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +208,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,19 +499,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="6" width="27.5546875" customWidth="1"/>
+    <col min="3" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
@@ -482,7 +525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +534,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -508,7 +551,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -525,7 +568,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -542,7 +585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -559,7 +602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -576,7 +619,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -593,7 +636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -610,7 +653,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,13 +662,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>B4+B3</f>
         <v>38350</v>
@@ -634,7 +677,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>0.4^3</f>
         <v>6.4000000000000015E-2</v>
@@ -663,7 +706,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>B3*B13+B13*B4*0.5</f>
         <v>1387.5840000000003</v>
@@ -681,7 +724,7 @@
         <v>193.63200000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>16.404414477416928</v>
       </c>
@@ -699,7 +742,7 @@
         <v>313.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>8.2022072387084641</v>
       </c>
@@ -713,7 +756,7 @@
         <v>8.2022072387084641</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -734,7 +777,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -755,7 +798,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>B17/16</f>
         <v>102.8125</v>
@@ -773,7 +816,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>B18/16</f>
         <v>341.8125</v>
@@ -791,13 +834,13 @@
         <v>42.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2.84798862455155E-2</v>
       </c>
@@ -811,7 +854,7 @@
         <v>2.84798862455155E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1.423994312275775E-2</v>
       </c>
@@ -825,7 +868,7 @@
         <v>1.423994312275775E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -846,7 +889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -867,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>B24/16</f>
         <v>8.9375</v>
@@ -885,7 +928,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>B25/16</f>
         <v>29.6875</v>
@@ -903,7 +946,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>6.2472008538550117E-2</v>
       </c>
@@ -917,7 +960,7 @@
         <v>6.2472008538550117E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>3.1236004269275058E-2</v>
       </c>
@@ -931,7 +974,7 @@
         <v>3.1236004269275058E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -952,7 +995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -973,7 +1016,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -994,7 +1037,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1058,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1057,19 +1100,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38">
         <f>84/1.5</f>
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B3+B4</f>
         <v>38350</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1132,7 @@
         <v>59.375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1107,6 +1150,224 @@
       <c r="E42">
         <f t="shared" si="17"/>
         <v>259.4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F18:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3495</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>CONCATENATE(A3," ",B3," cum")</f>
+        <v>Embankment Construction 3495 cum</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5623</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>CONCATENATE(A3," ",D3," cum")</f>
+        <v>Embankment Construction 5623 cum</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5551</v>
+      </c>
+      <c r="G3" s="9" t="str">
+        <f>CONCATENATE(A3," ",F3," cum")</f>
+        <v>Embankment Construction 5551 cum</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11251</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>CONCATENATE(A4," ",B4," sqm")</f>
+        <v>Geotextile Filter 11251 sqm</v>
+      </c>
+      <c r="D4" s="9">
+        <v>18105</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E6" si="0">CONCATENATE(A4," ",D4," cum")</f>
+        <v>Geotextile Filter 18105 cum</v>
+      </c>
+      <c r="F4" s="9">
+        <v>17871</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f t="shared" ref="G4:G6" si="1">CONCATENATE(A4," ",F4," cum")</f>
+        <v>Geotextile Filter 17871 cum</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3388</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f t="shared" ref="C5:C6" si="2">CONCATENATE(A5," ",B5," sqm")</f>
+        <v>Geo_Bags 3388 sqm</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5451</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Geo_Bags 5451 cum</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5380</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Geo_Bags 5380 cum</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9842</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Turfing 9842 sqm</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15836</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Turfing 15836 cum</v>
+      </c>
+      <c r="F6" s="9">
+        <v>15632</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Turfing 15632 cum</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20">
+        <v>1165.0000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21">
+        <v>10.35</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21">
+        <v>1150.0000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A" sheetId="1" r:id="rId1"/>
     <sheet name="Type B" sheetId="2" r:id="rId2"/>
+    <sheet name="Resctioning" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Mobilization and Site Preparation</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>work name</t>
+  </si>
+  <si>
+    <t>Resectioning_850M_4600_TO_7800</t>
+  </si>
+  <si>
+    <t>Resectioning_3850M_25200_TO_38500</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F18:F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,4 +1380,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3366</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>CONCATENATE(A3," ",B3," ","cum")</f>
+        <v>Embankment Construction 3366 cum</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15286</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(A3," ",D3," ","cum")</f>
+        <v>Embankment Construction 15286 cum</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11722</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>CONCATENATE(A4," ",B4," ","sqm")</f>
+        <v>Turfing 11722 sqm</v>
+      </c>
+      <c r="D4" s="1">
+        <v>53230</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(A4," ",D4," ","sqm")</f>
+        <v>Turfing 53230 sqm</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
@@ -128,10 +128,10 @@
     <t>work name</t>
   </si>
   <si>
-    <t>Resectioning_850M_4600_TO_7800</t>
-  </si>
-  <si>
-    <t>Resectioning_3850M_25200_TO_38500</t>
+    <t>Rsec_3850M_25200_TO_38500</t>
+  </si>
+  <si>
+    <t>Rsec_850M_4600_TO_7800</t>
   </si>
 </sst>
 </file>
@@ -1384,28 +1384,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,6 +1461,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <f>LEN(D1)</f>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac- sunan-07 -2/Estimate_Segrigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A" sheetId="1" r:id="rId1"/>
@@ -506,19 +506,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G5:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="6" width="27.5703125" customWidth="1"/>
+    <col min="3" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
@@ -532,7 +532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -609,7 +609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,13 +669,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <f>B4+B3</f>
         <v>38350</v>
@@ -684,7 +684,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f>0.4^3</f>
         <v>6.4000000000000015E-2</v>
@@ -713,7 +713,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <f>B3*B13+B13*B4*0.5</f>
         <v>1387.5840000000003</v>
@@ -731,7 +731,7 @@
         <v>193.63200000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>16.404414477416928</v>
       </c>
@@ -749,7 +749,7 @@
         <v>313.25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>8.2022072387084641</v>
       </c>
@@ -763,7 +763,7 @@
         <v>8.2022072387084641</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -784,7 +784,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -805,7 +805,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <f>B17/16</f>
         <v>102.8125</v>
@@ -823,7 +823,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>B18/16</f>
         <v>341.8125</v>
@@ -841,13 +841,13 @@
         <v>42.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>2.84798862455155E-2</v>
       </c>
@@ -861,7 +861,7 @@
         <v>2.84798862455155E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1.423994312275775E-2</v>
       </c>
@@ -875,7 +875,7 @@
         <v>1.423994312275775E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -896,7 +896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -917,7 +917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <f>B24/16</f>
         <v>8.9375</v>
@@ -935,7 +935,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <f>B25/16</f>
         <v>29.6875</v>
@@ -953,7 +953,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>6.2472008538550117E-2</v>
       </c>
@@ -967,7 +967,7 @@
         <v>6.2472008538550117E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>3.1236004269275058E-2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>3.1236004269275058E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1107,19 +1107,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F38">
         <f>84/1.5</f>
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <f>B3+B4</f>
         <v>38350</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>59.375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1172,18 +1172,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="20" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>28</v>
@@ -1198,12 +1198,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>Embankment Construction 5551 cum</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>Geotextile Filter 17871 cum</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>Geo_Bags 5380 cum</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1307,17 +1307,17 @@
         <v>Turfing 15632 cum</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q19" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q20" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1165.0000000000002</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" t="s">
         <v>25</v>
       </c>
@@ -1386,20 +1386,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="81.109375" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>Embankment Construction 15286 cum</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>Turfing 53230 sqm</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <f>LEN(D1)</f>
         <v>25</v>
